--- a/biology/Botanique/Allium_neapolitanum/Allium_neapolitanum.xlsx
+++ b/biology/Botanique/Allium_neapolitanum/Allium_neapolitanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ail blanc ou Ail de Naples (Allium neapolitanum) est une espèce de plantes herbacées vivaces appartenant au genre Allium (les ails) et à la famille des Amaryllidacées. Il fleurit dès le début du printemps, facilement reconnaissable à ses ombelles à fleurs blanches. À ne pas confondre avec l'Ail des ours dont les feuilles sont plus trapues et leurs fleurs pointues.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante érigée de taille moyenne (20 à 50 cm) à tige triangulaire, à bulbe presque sphérique (1 à 2 cm de diamètre). Chaque tige est accompagnée de deux ou trois feuilles linéaires de 5 à 20 mm de largeur.
-Morphologie florale
-Inflorescence en ombelle hémisphérique ou presque sphérique. Spathe à une seule valve. Fleurs hermaphrodites à six tépales (trois sépales et trois pétales similaires) de couleur blanche, s'ouvrant en coupelle, portées par de longs pédicelles. Six étamines blanches à anthères brun noirâtre. Ovaire supère à trois carpelles.
-Fruit et graines
-Le fruit est une capsule.
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante érigée de taille moyenne (20 à 50 cm) à tige triangulaire, à bulbe presque sphérique (1 à 2 cm de diamètre). Chaque tige est accompagnée de deux ou trois feuilles linéaires de 5 à 20 mm de largeur.
 </t>
         </is>
       </c>
@@ -544,10 +557,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescence en ombelle hémisphérique ou presque sphérique. Spathe à une seule valve. Fleurs hermaphrodites à six tépales (trois sépales et trois pétales similaires) de couleur blanche, s'ouvrant en coupelle, portées par de longs pédicelles. Six étamines blanches à anthères brun noirâtre. Ovaire supère à trois carpelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allium_neapolitanum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_neapolitanum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allium_neapolitanum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_neapolitanum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée géophyte bulbeuse poussant dans les maquis, les terres cultivées ou les friches, souvent dans des lieux ombragés ou humides (bord des ruisseaux), sur sol sablonneux. Floraison de mars à juin. C'est une espèce essentiellement méditerranéenne.
 			Fleurs.
@@ -557,33 +646,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Allium_neapolitanum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Allium_neapolitanum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles peuvent se consommer en salade, en pesto, dans des gratins ou des tartes. Les fleurs peuvent se consommer crues ou après conservation en pickles ou en lactofermentation[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles peuvent se consommer en salade, en pesto, dans des gratins ou des tartes. Les fleurs peuvent se consommer crues ou après conservation en pickles ou en lactofermentation.
 </t>
         </is>
       </c>
